--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/29_Elazığ_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/29_Elazığ_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80348AA1-6358-498B-8BDC-1DEBA0224C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3F4059-71F8-4F06-B7FB-7773D6B070DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{E03C4100-4E68-4BDE-82B5-262635971E81}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{037FD8FB-C98E-4B82-BE46-940E09BA7896}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{9AD529FD-B929-4F61-9EFF-FC18FFDEA9CA}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{891DD688-DF13-42AF-A6AC-499F9890ACFB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7353746B-57C8-4552-BBF9-47F7AE7D57E4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B4424A6A-B352-4B51-89C9-065F25AAF8A4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9D8F5971-4A0D-4B6C-B8D8-5281AA4DFC19}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{70F7C7C4-0780-4F67-948B-099BE2F22166}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{199D39CA-8F18-442A-B1C9-7FD3106F01D6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D32F7DAD-30CF-42E0-AFA0-77220557D96A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{55D6FEF0-3C96-4C69-97E3-80CF48744931}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E7EF22F2-44FD-4D30-8AFB-94AE1707141C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{550010D1-0C50-4C1F-82CF-D88887E01471}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2FA4A3B6-35D9-4CA5-81BB-F226B0F45D30}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C88F95F6-EDCD-47D2-BE72-BDF853096C9B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FDFF9A6B-CB79-492A-A41C-3064EDFC727C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DD7BE2-412D-4641-873B-68969E0819A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8249BAC6-0E50-467C-8C19-52BEE937B23B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2550,18 +2550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9F5287D-803B-436A-908A-FAFF10DBAEF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{225A3136-2DD9-4147-9D39-BBC5A6F11586}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{36C01CBF-633D-4582-B08B-7DB95A327B45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB948BB4-5F3E-4556-B382-601B3392837E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05D8F67F-D45C-4486-9194-7A2D8313EE25}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA9EC217-28BD-4AC5-9929-38985396E73A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{456810F2-8DAC-432D-9C1C-CDB8D6246559}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF2ACAF4-8F31-4B5E-8019-748A1636F854}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4B769CF1-4FB1-4206-9118-D7B518831EF4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03A3D8B7-2D42-45BF-B79D-40A6B85E07B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1522D92-7EDF-4A1F-AC87-FF922EF3E593}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C8C4F6C-5F18-4353-9C4F-7C08E97F0CBD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3DA4629-F903-40FA-A91D-B276A87D9C21}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADE9F405-E01A-49CE-85F4-EAF1525BE955}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{40102052-27B3-48E7-84AD-0F0EAE9110D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1149F7B-B274-4470-B4EE-9170C1FE1E56}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1259362A-F2FA-49AC-A239-4E1A855F6C89}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D572A12-AC00-4989-840B-E0A877C84BA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD6C521A-8827-439B-A53B-9E4260395FB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{032BF126-F813-4D31-837C-146E8D140960}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68FE182B-14F3-488A-A688-7B465B204E3C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DEDB5A90-19F6-48AC-822F-7BE7E92DB341}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A5005E1-7109-4A95-82A4-AF828A2B7245}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17D8B175-D9C8-4284-94BA-E7E04A23ACE5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB6A3BD-5FF7-4872-A892-C3C8E539E6F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C52DF4-F9F8-42BA-AE98-C3CEF9D657D4}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3784,18 +3784,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCA74F8E-5EC7-4535-96E2-074A7CE14FA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BBC4DBEB-F50E-4C92-AF55-F1DD58967AA6}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{15CC3DE2-8D9B-4027-A202-BF65C91DA888}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABE5A37F-56B3-4701-A1B6-2552846A2B7C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30C33CEF-C6F9-4786-9E1A-BF19865678F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CD68765-4FAF-4E09-9883-BFC2022C66BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7C12A3F-DA7C-4092-8C73-08F7A81FB4D5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{053832EB-1F0D-4BDC-937C-9936C2975B82}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B445BC9-6E3A-4BE0-86B9-7FE2155B9B88}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA439E96-50B9-4689-ADBF-4F8C678C6226}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C5F12B7-A9DA-4488-917B-6DF2EE2B4D74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36108B7F-8E8C-4998-BFEA-255C5305F666}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C92E6E30-5ABB-44BD-8094-17E33B27CE6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E25B0A6F-B5F9-428E-B362-331A82FEF8A5}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B51306E0-0037-4101-8160-767512204B35}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DB75762-589B-44CF-AEBD-B7477EE6623F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{170D5926-04F3-4E2C-B49B-9CB0BCA36F70}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{324572E9-D971-42B4-87A4-C48AFD7EC58A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A21113D-C678-4CFE-A204-832808966AEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECE8415D-FD14-401E-A7B4-4E46D6647F62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D95AADDC-F21C-4D1B-A1F5-5FDA87D46210}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4342F6E1-88DB-43AC-9768-095539E42503}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA00C479-DFC4-4920-8DC9-CF44FA3BA372}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68A2B590-9D27-49B8-83C1-829567FD9DCF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3808,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADE7137-02CF-46EE-9BC9-2C058D0BC873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CBEFBF-06E7-4F56-BE2D-AA2947C05C07}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5014,18 +5014,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FD8955C-DFEF-45B7-BE22-8C9EE3A945B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8AD3057D-9F71-44F4-BFA8-43C0263F354E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{71F5892A-3A01-47D5-A9D6-9D02E790B9ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0DE27BF-F5BF-4939-9A22-8C54A469724A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DE6D0F5-9B35-4290-8187-1247C051EFFE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A84BAAE-FB87-4B8E-AEFB-5CBA60EE7951}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D31FB20F-BE9C-401C-A818-704A62054A93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85918CCC-FC47-4110-9A82-854B5AFFC61F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99BBD3D5-8A15-4778-BEA9-8234A1225024}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB534272-06D3-4798-BA66-ADF044487C3B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C024B3E9-5D14-45C0-B18D-7C48582B4540}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31468504-D9C1-46D9-A407-CE69E36D2CD3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEF183BF-66AB-40B9-A527-5AEDED6DE6BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{633C0089-BB8D-4C9B-A09B-3DC68551760D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A15217ED-CFCD-4444-8213-924368DF825A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C015A05-ACF7-4ED1-8DDA-6BF2FF512744}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27FB4AD4-5035-4828-AF3B-2A12E694E698}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2DD81F3D-267D-424A-B6C2-DB2513E18B90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7A06ABD-30E7-403F-8E52-34C902859ACB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4962000-0647-48C0-9785-8272EB36A390}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD0FC157-A471-4070-8CC6-955F82C2F4C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{632EAB15-C0F7-4F5F-A050-F83A2CA4F2C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0F257AE-154C-4B13-8E81-35C634853519}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9639254B-2812-4EBC-A861-277592EE5DEC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5038,7 +5038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8C907-0C78-4DAC-9978-A9AD8CAE27A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C25E231-A433-4AF7-B24D-7242D2732B87}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6244,18 +6244,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC0A1F9F-4BC3-48E4-B2A8-304579D8D9E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C264F47C-87BF-45B5-BE44-248E1A3C9B64}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{89273EAD-9AB4-45BA-B4CC-3FC0954A494B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A74C3980-B9D8-4C92-970F-74A1F70F2AD8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D933A7E5-8D91-4B84-8672-7325B179E466}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5D5A5BF-2A60-4B5D-B2F3-56EF7D305B45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA5C0A56-EAAA-4864-9412-5BE30561C448}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8F5D4F3-CF32-44A6-8E5C-0A1F3FD4D38C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6603C4AC-974F-4CE5-90D5-AB4FD92E7F4C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DCEB3EFD-65F8-44CB-873D-EA03175EA012}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4CFB0AC-B678-491C-8CC2-E842DED2697E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAE5A4BF-E3A4-4D23-9207-C7004080BD82}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73DC6DA9-1425-4C95-940A-6CCFA48C573A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{295788C3-E84C-4E18-A657-B43053547FE2}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{948178CE-3EB6-44BE-B323-A0B57DCC9CEC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD2D63F3-DB0F-4814-A4D2-8A55055F4F75}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1CBB1B5-DE6E-4621-B5E3-7AAD9033E17F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25A8CB19-CCA0-4AF2-92A3-EC41AF538E2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{451FA105-B55F-4269-9D93-072AA219897A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BE8E356-A85C-4370-BA5E-AB0C13AC6D75}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{223A05D2-B59D-4C2B-82AB-BF165E74958B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AFB49C18-A39E-4FAE-A8B0-8E0AF91B1F25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AA8DEB4-EFC4-4263-B632-2DA4350263CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBCFB2CE-67B1-4902-B8C7-17B784A85099}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6268,7 +6268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2615A010-2194-4F6C-9167-D1DBD4D48F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C57BFA-E9A9-43FA-9323-3484B7E361DD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7493,18 +7493,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{770EC9B5-AB5B-4011-AB0A-40ED926207D7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C77457E-90EE-45E5-9E66-A9B2461B120B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1F404042-5C65-444A-AC99-DB2858DF3FD4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8B3514A-26F6-4439-A9DE-C19AE36E12B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDF44AE9-DF98-4430-91AF-E99B08EF4EC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD5D97FC-11E3-4597-94D0-8774ACECEC9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9287BAA-D59D-4B7B-BF1A-F33D6AA01A5F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC327494-5053-4300-A03C-2E2E3F6CD6C1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF2AAEC1-9FE9-45BA-A8C0-282BECC8D0B1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4BC5B0E3-736E-4730-B4EA-FFFEE84DD2BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FE09487-9ED8-4682-9728-EA024C8C6F35}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D591BA69-612E-4360-A45A-BE24317CE610}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1440CBF8-E04D-4235-AF92-3452AA4829E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79A9A55F-FC8A-466B-A468-67F096745EE9}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2F1FFC25-FFFA-45A9-9DEE-2BB4FE9AE204}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9344624E-BC34-4336-A9CA-FC6A924D24EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1EF7D36-BAE8-4529-AB30-E84BF1B2B4D4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58D3CFE2-EA46-4AF0-B6D1-4B08CA7E3419}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8ABE02DB-3518-41BA-9430-4A37BFB65D36}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7B000EA-2B5A-4CAE-A87C-2C33643D4222}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8875DA1B-B503-4F1B-AC95-66A5595C9A4C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E5389C8-5689-4555-8182-2CAB0FB55064}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4ECE57F7-1590-4E79-8471-1EEA0C1A35BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13DD428F-1F52-4135-B96D-641BBF3C1B9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7517,7 +7517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D570D-3CD9-4CBB-B432-A2E2405CEC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EE5B63-4583-4FEC-B175-D915C3EDC813}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8742,18 +8742,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED648348-D731-4B35-831C-BEB0ACAF3F74}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08D85847-C051-41C5-8D7B-3FC98954B5F8}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{92251E3D-47F4-4288-B1EA-CD07C8C96788}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3166F488-992C-4147-92CF-C7B9F8CEDD6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E39FE7CC-9ECA-4903-A609-113FBD2AFA79}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{228E2D3C-7050-428A-A960-C9BB73298C6D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6058E66-2BB5-489C-98DD-A6AD8ED802E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F20163E-3C67-4862-A535-DDF18913E2F6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5956251F-C0F6-4D7E-A0B5-D5FCCCE2DF74}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06DCC47D-5A12-4760-8526-A5BF62F610C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0852308B-533C-4B06-BCB9-E355E831D864}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D0EF91A-6016-4FD2-9DF8-40DCB60099D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F65A5659-B049-49D6-9AFA-77A973318DA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EB08681-1208-4B1C-9774-78690D2A9D26}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D0650DEC-65B6-437E-8267-D4AFAE6FD5FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70E51419-7EAE-4D80-B026-470081FE474A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89E36879-18DB-4FC1-97EE-65231ADEC5AB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E313AEF1-2166-4494-A564-A1C3A432D109}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09BE2BA7-DE94-4FA9-AFFC-F0BA29DE7766}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{832B4B81-A915-441E-96AE-FE95D329D4D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EDC95475-3D64-48EE-B0C2-9BFE9BD7317B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7ADB2BF8-86B1-4099-BCFB-9CD80541CCEF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66D0DE2F-71D0-4463-AAF2-DEBBE5F42B00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9F86A1F-D691-4E2A-A987-C5995CDE21FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8766,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB52B839-8078-43A8-A182-77A68111C59D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880D5A22-E96D-415F-9CEC-F3AEE2875046}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9987,18 +9987,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74DD2F49-C228-49CC-A4EE-ABA40D56C2E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C976A83-99CF-442B-AA95-2C487AC63DED}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E11E745C-5D0E-4797-9ACF-7A0F5EF54BE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0332E58A-CCE9-40D9-BAFD-287A05C6B040}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B11ED5D-358C-4AE5-BF71-01D6F05A1D3F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97F9C8B2-AFF6-4A69-96AE-FB93DFD4336D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B471221-E3B5-49E5-9FAF-8ABD8CA410E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3FFF295-4DDD-4208-A39C-7760230BD139}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1548A0CE-A067-4D6B-AFF1-1B9249B15811}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E21F02F4-4F96-4FCF-B7D9-474998EC2F8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF5BBB0C-CEFD-48F7-900D-930EB1C08D4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F19FE94F-E281-4F5F-8D32-552591CB4462}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22AA3B66-3A9A-4EA4-AB0A-5D8499D2443D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{196D8149-7EB8-4FB7-8F84-7C8BB4E67F3C}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E92C41CE-5EEC-4D89-BBE1-6450BB63050F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6146188F-5454-4B47-B2F3-A497AC8F719D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D0F1F5C-B15A-4DF7-9F4A-71C7778620D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F670F47-F0B7-438B-B390-F456E895D595}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9CFB9D1-8782-49C3-98CD-67F8C8484235}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B512051-ED55-4DFC-8F46-6F7866E20E1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{045A1D7A-799B-4C12-B004-00BE070F31F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E756F22-5785-4730-8C8B-2963C5F57E49}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38586CF3-7886-48BC-BEA2-0D7E342995AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E93A810-D1F3-41BE-9F46-00B48C515050}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10011,7 +10011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554E80DB-E6F5-42B7-B72E-0E7DDAB711CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5DEDAF-6095-4E8F-8EEB-0C13581C5413}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11232,18 +11232,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{931B4BC9-D977-4EC2-A2F6-E03B9B631155}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C79FEA4-40A5-4B79-90ED-70AC68B437BC}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3651CCF8-02DD-4EEC-BF7B-0EABF7E2F1BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7B8D7318-6823-4B3F-8D80-997AE5079C23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECDCBDA6-C90A-4BDB-8926-A1FA5E021001}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E1CE0F2-9A70-45DA-86FA-EBBD1E62A069}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FB824C6-EE13-49E1-9072-E75144A142A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BDFAF85-37E8-4C43-85EF-1C99534FAFD1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF788A02-CCE1-4B13-99D8-E651C85AD4D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E783207-2374-4F16-8C22-905AC8898F8D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{202D9686-C7D9-4ED2-8B00-5DBCF55C1834}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF773601-0D89-4857-8301-2A699C0326A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96ABB0DA-0811-48E6-935A-85EE93BA7EFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3C05797-7F5C-48D0-A7D1-951442C52D05}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{14B5B0D2-41DC-48F6-9589-46C2ED8916E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5212FD97-305A-4470-AADE-A6555EA10C27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD2C50AB-7EEF-43CA-9B27-E04AC2F56006}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04FEFFB4-9AF1-4957-90F2-1185C441B1DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE2FDADF-0F63-48D5-B8A8-3BC4BBDDB3A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5487BACC-0DDB-4CF4-836A-61B4ACD060EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5731034D-7B7D-4160-9F91-3992031A05CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08173BB1-3A16-4E10-91EB-C3EF8A1F2BC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{767C1F0D-9AF8-4500-9393-5CADFDE124F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9E138B8-6026-4F06-A170-2AEEF72EC1E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11256,7 +11256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E773E4B8-CDEB-4259-A679-FBB91C33C197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8CA79-10BE-429F-A0CB-E61A675352D7}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12469,18 +12469,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23F458E0-7382-4524-9C4D-7DDA2F90BF86}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04811B96-D0BD-44E3-87AF-93F2DFD66428}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{09599F3C-953B-4451-9CE0-6B9F486C1060}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C1A47419-4ECF-43D8-A5FD-A3B2BC09DC5C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2766DCD1-5FBE-4CEB-936F-2CE17F2D6F1B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7B9C245-7E0D-42AB-B381-38FA8E0543C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AE883C3-E7C7-4AF9-AAAB-751BBCA9E84F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51DFD7EB-8081-4D55-B672-C73F228A780E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8621934C-E78B-4347-9BA5-7407BD4C4CF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B944121-204B-4B5F-AFF3-37173142ABE8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98A9B877-DAAD-461D-944A-B7CF93293F0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5182955-C66B-4C4E-BF94-AED78AB89093}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF6CC426-DA22-4B37-BE71-8F76C3762A20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF31F1A5-0B91-4871-93E3-E5F224EC87FF}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{ACFF3E5F-E390-4066-B410-AAFF0545385B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{339467D3-37F5-4DB5-B948-482AFE88D71A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB154E14-C7FA-4A17-999A-BA2CEA8B1DE7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{671DAD19-42AC-48A1-BBB7-C1586EBAE9BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2DDA55C2-F293-4A93-BC1A-F0ED35267F23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49362108-B1C8-4DCA-836E-2833C7D1D0DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4A25167-08FC-4E29-9970-B090744A6BE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F4EC0E26-D10C-4DCE-BBF9-6CF918DB141E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA78DA5A-756B-474E-8C66-3D88373359F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{512226F1-6E1A-440F-8952-BE421B4F000F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12493,7 +12493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCADBF2C-36C9-4E43-9F79-25C33A7044DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA2C553-A956-4B0B-AADF-297A9BD4E016}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13707,18 +13707,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BEAB6169-A14F-477C-9852-47B9E9BABA58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F266C4A1-0E1A-4697-AEFF-839F50FC976E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{362F8AE4-5AAE-4DE1-9F6D-8B5AB6EF50D0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCF47C82-5298-433F-B99F-C386876A2009}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77A206A1-89C7-4907-9241-3A633E172A7E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{079A7036-8D27-4A8B-9ED9-13D0BCFAD0A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18CC0965-6FD6-41D4-BECB-951E02824041}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{367E764C-76BC-4D23-8A63-53A148A11047}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{028C6C2F-C49E-451E-ABBA-F9AB12837DC9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A9FB87F5-21F6-43B9-85DF-1459004D74A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{442E38F1-6F70-440E-9C4B-A82C9D080AA8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{562F85DD-F8D7-4F66-88BE-9CF4A1B55080}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56B252BC-0AB6-4ABA-ACC9-1277440CD8C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCC97B61-2554-4E0B-A862-A7BEBBF7BC39}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3C32A67D-D7E7-4E78-B054-B25AC91199F7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9FF53270-BA88-409A-8F88-5893F546ABB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7D5FED6-0861-49B5-8D67-2856EA56C822}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{129F1487-F525-4F6A-9438-032AEB507872}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D076B7E-0F95-496D-BAB4-194F64CC1640}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A40B4487-7CA9-43B7-8C83-9EDF11BFCCFD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71B7196B-84FE-404D-B5D5-9C82EC29EB7C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F1F396B-B1C9-4047-BA71-F24D77E770F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A0AD1F4-1E33-4CC1-8953-2F0A9667C38E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92B0FAF0-3E8B-48ED-BFC6-448F75121664}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13731,7 +13731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC28BE13-0FBC-4AF8-932E-569A4B711151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FED4DF-DB94-4047-9E0F-3D3CDE4C9BF3}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14945,18 +14945,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28D4B21F-493D-49A4-94DF-E390C00F5F77}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6604254F-EFEB-436F-BF74-6B7FFDEA8D34}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F9BCC577-53BF-4307-BBC0-06971BFEA94D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF542A90-0486-49DA-95B9-AC44F248634A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DAC5329-E9E6-426D-BF72-E1EBFED99ED2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C775F5B2-A9CC-446A-9D03-BAB280D6F751}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0FEEE73E-6173-4281-ADE0-A0EE01C8238A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B7FD3FD-97B5-4846-BD78-A8614E62563E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44EE8C93-1082-4798-89B6-8CBC6DF43A6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA9B5266-F4FD-4C60-B72F-774E38479DEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0AA4D78-24BC-4D12-92D6-9B5566353141}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{993531EB-584B-436A-8BEC-EB3FC00D7DC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B1B3656-BB1F-42CA-8029-0B5FDAB6B611}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4D94482-CA1A-4E07-91BC-BBA109B1B8C8}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CA45943D-8546-4D46-BA30-76CC797506E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C6D167A-A436-4B91-B96F-BB76A215E923}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA90D2E7-BBC2-4D76-B470-12E17E804971}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{549F4DD9-77BA-487C-B2CB-3B361D491B6B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEBEE183-B438-4916-BFD2-D7F41E3104C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA3E4F64-E0C9-47D4-AE0A-8039BA80979B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5353B087-1CAE-4FF8-BA02-0B797AF0BE13}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08835B4B-D583-468A-8D4C-B52085ECD7E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF003786-DAD2-4233-A4B4-65160E38E6FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69E8A10B-2CC2-4DDE-8A14-DCB5F642A27E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14969,7 +14969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA576FA-0512-4EFD-9D7C-6EBA381DD966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CECA7A-41D9-421F-A143-44A9433A6B3C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16183,18 +16183,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA3CC2E7-2DD5-49A1-A610-4E5D7B6061FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98C1E244-E56C-48F8-A81D-25C05C0F5754}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6CBE2009-5E49-4793-8829-100C72A56C4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B833CA66-91FA-40E0-889B-3EEDF35D4FD3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36DA73E7-895D-4261-8F5C-A75DEAB265C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F1ECE63-D272-4945-9634-85D1F5EB6AB7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44B02FC6-9B99-47F0-8B7D-EE10F92BE669}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{008D597A-10FB-43DE-94DF-CFFD25E04391}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA751C69-383F-441C-99D9-DA6BE3229BC0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F150E669-EE4D-4545-AFD2-18FFB55D63B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04248659-B989-4268-AE9F-718A4ECC7EDF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3834FA44-084E-4F19-AF57-86637EA12577}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFFD0B45-1E44-4A06-8759-8E32AB74A77A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31645915-DFAD-4380-A41D-3DEB2C33C14E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E693693B-2F4D-45CE-AF9A-B5BE2FDFE63F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D3BC6AA-0504-4134-9130-608EF91705B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C0235AF-3B41-4528-A2F6-0890E2C373DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0303EBDE-22BE-4869-91C2-EA10421D8DF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6BCEB35-86C7-4492-A2A9-9557EDE2411A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23C1ECFE-DCC3-4397-B1D2-E3A73070D633}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4242926F-6BFE-45D2-8DF7-D4A6DDB912D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98EC8471-C21E-40F7-8BAC-99BAB3EFB001}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1C7A285-0FBC-4745-888B-2871A9586DA4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{726F183D-7EC7-4C88-A0FF-4EFCEEF620D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
